--- a/packages/central-server/__tests__/importers/programs-charting-complex-core-only-invalid.xlsx
+++ b/packages/central-server/__tests__/importers/programs-charting-complex-core-only-invalid.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>programName</t>
   </si>
@@ -116,9 +116,6 @@
     <t>visibilityStatus</t>
   </si>
   <si>
-    <t>testchartcorecode0</t>
-  </si>
-  <si>
     <t>ComplexChartInstanceName</t>
   </si>
   <si>
@@ -128,18 +125,12 @@
     <t>current</t>
   </si>
   <si>
-    <t>testchartcorecode1</t>
-  </si>
-  <si>
     <t>ComplexChartDate</t>
   </si>
   <si>
     <t>Date of onset</t>
   </si>
   <si>
-    <t>testchartcorecode2</t>
-  </si>
-  <si>
     <t>ComplexChartType</t>
   </si>
   <si>
@@ -147,9 +138,6 @@
   </si>
   <si>
     <t>{"One": "One", "Two": "Two", "Three": "Three", "Four": "Four"}</t>
-  </si>
-  <si>
-    <t>testchartcorecode3</t>
   </si>
   <si>
     <t>ComplexChartSubtype</t>
@@ -191,14 +179,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1578,70 +1563,70 @@
         <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="R4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1"/>
